--- a/sheets/gaming.xlsx
+++ b/sheets/gaming.xlsx
@@ -5,10 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="xbox-controllers" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="ps-controllers" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="ps-consoles" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -339,6 +342,49 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com.au/Efootball-Evolution-Soccer-Season-Update/dp/B08DKPV7GJ/ref=d_pd_sbs_sccl_2_4/356-4133519-7867647?pd_rd_w=MB2Yt&amp;content-id=amzn1.sym.d1825639-ef0c-406d-817e-edd44d294c05&amp;pf_rd_p=d1825639-ef0c-406d-817e-edd44d294c05&amp;pf_rd_r=5D31K18ZMEAZDBE3KATX&amp;pd_rd_wg=cOXqZ&amp;pd_rd_r=0f563705-4fb2-4f6b-beec-46da98a6d061&amp;pd_rd_i=B08DKPV7GJ&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xbox Wireless Controller – Shock Blue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Experience the modernised design of the Xbox Wireless Controller – Shock Blue, featuring sculpted surfaces and refined geometry for enhanced comfort and effortless control during gameplay
+Stay on target with textured grip on the triggers, bumpers, and back case and with a new hybrid D-pad for accurate, yet familiar input </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61FczNmfCBL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/61Q+XUFxMaL._AC_SL1500_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com.au/Xbox-Wireless-Controller-Shock-Blue/dp/B087VMGP5G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony Dualshock 4 Wireless Controller for PlayStation 4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41QwbBaOfnL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/41hbvyA8+DL._SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.in/Dualshock-Wireless-Controller-Playstation-Black/dp/B06WWR2GZF/ref=d_pd_sbs_sccl_2_1/260-9196975-5769943?pd_rd_w=AQcgU&amp;content-id=amzn1.sym.e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_p=e2ce9e2f-6d12-4c08-abc6-a5b1e7e9208f&amp;pf_rd_r=08R8DTBVECHVCKB304SS&amp;pd_rd_wg=4dnFs&amp;pd_rd_r=37fe1351-1c06-475a-8049-fd8571a958cc&amp;pd_rd_i=B06WWR2GZF&amp;psc=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sony PlayStation PS5 Gaming Console (Disc Version)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This newest console unleashes new gaming possibilities that you never anticipated. Experience lightning fast loading with an ultra-high speed SSD, deeper immersion with support for haptic feedback, adaptive triggers, and 3D Audio, and an all-new generation of incredible PlayStation games. Your play has no limits on the latest next-generation PS gaming console. Experience lightning-fast loading with an ultra-high speed SSD, deeper immersion with support for haptic feedback, adaptive triggers and 3D Audio, and an all-new generation of incredible games.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/5642cd15-bc63-4a2d-bafc-579534b16dd0.16a93062d7abea62f07ea8339b3c2e42.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://i5.walmartimages.com/asr/93292c6a-0a75-4afa-8baf-3c0e3107f176.3325855be32d0b8503e4358dedca6e88.jpeg?odnHeight=2000&amp;odnWidth=2000&amp;odnBg=FFFFFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.walmart.com/ip/Sony-PlayStation-PS5-Gaming-Console-Disc-Version/935819605</t>
   </si>
 </sst>
 </file>
@@ -466,11 +512,11 @@
   </sheetPr>
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F23" activeCellId="0" sqref="F23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -885,4 +931,214 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3635</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>400000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3638</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>300000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>3644</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4000000</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sheets/gaming.xlsx
+++ b/sheets/gaming.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="xbox-controllers" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="ps-controllers" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="ps-consoles" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="tablets" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -59,16 +60,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.eg/-/en/Generic-Fifa-22-PlayStation-4/dp/B09HJLCJTP/ref=d_pd_sbs_sccl_2_3/261-7153756-1906226?pd_rd_w=aAf4h&amp;content-id=amzn1.sym.4059ef71-1ee1-4c79-befd-1e82b6bb0b29&amp;pf_rd_p=4059ef71-1ee1-4c79-befd-1e82b6bb0b29&amp;pf_rd_r=NDT423C682FR5MPS0KAF&amp;pd_rd_wg=tqbLc&amp;pd_rd_r=2dc87370-8092-429b-8686-a9ee759b167c&amp;pd_rd_i=B09HJLCJTP&amp;psc=1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Amazon Fire 7 Kids tablet, 7" display, ages 3-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Easy-to-use Parent Dashboard allows you to filter content based on child's age, set educational goals and time limits, and grant access to additional content from Netflix, Disney+, and Zoom.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://m.media-amazon.com/images/I/6144pWTULEL._AC_SL1000_.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">Marvel’s Spider-Man (PS4)</t>
@@ -124,8 +115,7 @@
     <t xml:space="preserve">https://www.amazon.com/Hitman-2-PS4-playstation-4/dp/B07KCPN3CC</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Uncharted Collection PlayStation Hits (PS4)</t>
+    <t xml:space="preserve">Uncharted Collection PlayStation Hits (PS4)</t>
   </si>
   <si>
     <t xml:space="preserve">Play as Nathan Drake across a trilogy of thrilling, white-knuckle adventures. Experience Drake's relationships with those closest to him, as he struggles to balance adventure and family
@@ -149,8 +139,7 @@
     <t xml:space="preserve">https://d3fa68hw0m2vcc.cloudfront.net/80d/202517272.jpeg</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Sniper: Ghost Warrior - Contracts 2 - PlayStation 4</t>
+    <t xml:space="preserve">Sniper: Ghost Warrior - Contracts 2 - PlayStation 4</t>
   </si>
   <si>
     <t xml:space="preserve">https://m.media-amazon.com/images/I/81np1kP3ydS._AC_SL1500_.jpg</t>
@@ -173,8 +162,7 @@
     <t xml:space="preserve">https://www.amazon.co.uk/Need-Speed-Payback-PlayStation-Playstation/dp/B08W65RNT9</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Fortnite Darkfire Bundle (PS4)</t>
+    <t xml:space="preserve">Fortnite Darkfire Bundle (PS4)</t>
   </si>
   <si>
     <t xml:space="preserve">Our biggest content Pack ever with 13 new items, worth over GBP70! The new items include:
@@ -197,7 +185,7 @@
     <t xml:space="preserve">Several years after his last adventure, retired fortune hunter, Nathan Drake, is forced back into the world of thieves. With the stakes much more personal, Drake embarks on a globe-trotting journey in pursuit of a historical conspiracy behind a fabled pirate treasure. His greatest adventure will test his physical limits, his resolve, and ultimately what he's willing to sacrifice to save the ones he loves.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://cf.shopee.ph/file/b394a59ac9824e09746c01b0b9105bbe</t>
+    <t xml:space="preserve">https://n11scdn.akamaized.net/a1/602_857/15/41/48/93/IMG-7989296390447253343.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">https://shopee.ph/Uncharted-4-PS4-Game-i.53383439.4838523420</t>
@@ -245,8 +233,7 @@
     <t xml:space="preserve">https://m.media-amazon.com/images/I/81mAxEmatDL._SL1500_.jpg</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Marvel's Spider-Man: Game of The Year Edition - PlayStation 4 (PS4)</t>
+    <t xml:space="preserve">Marvel's Spider-Man: Game of The Year Edition - PlayStation 4 (PS4)</t>
   </si>
   <si>
     <t xml:space="preserve">Marvel's Spider man features the acrobatic abilities, improvisation and Web slinging that the wall crawler is famous for, while also introducing elements never before seen in a Spider man game
@@ -259,8 +246,7 @@
     <t xml:space="preserve">https://www.amazon.ae/-/ar/%D9%84%D8%B9%D8%A8%D8%A9-%D8%B3%D8%A8%D8%A7%D9%8A%D8%AF%D8%B1-%D9%85%D8%A7%D9%86-%D9%85%D9%86-%D9%85%D8%A7%D8%B1%D9%81%D9%8A%D9%84/dp/B07X23YRCS?th=1</t>
   </si>
   <si>
-    <t xml:space="preserve">
-Sony Demon's Souls (PlayStation 5)</t>
+    <t xml:space="preserve">Sony Demon's Souls (PlayStation 5)</t>
   </si>
   <si>
     <t xml:space="preserve">Brand: Sony
@@ -385,6 +371,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.walmart.com/ip/Sony-PlayStation-PS5-Gaming-Console-Disc-Version/935819605</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Fire 7 Kids tablet, 7" display, ages 3-7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Easy-to-use Parent Dashboard allows you to filter content based on child's age, set educational goals and time limits, and grant access to additional content from Netflix, Disney+, and Zoom.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://m.media-amazon.com/images/I/6144pWTULEL._AC_SL1000_.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.amazon.com/Fire-7-Kids-Tablet/dp/B099HBQG2V?th=1</t>
   </si>
 </sst>
 </file>
@@ -418,15 +416,15 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -485,12 +483,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -510,13 +508,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -542,7 +540,9 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
+      <c r="A2" s="2" t="n">
+        <v>3344</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
@@ -561,230 +561,270 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="2" t="n">
+        <v>3348</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="0" t="n">
-        <v>600000</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="n">
+        <v>3350</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="1"/>
+      <c r="G4" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="s">
-        <v>18</v>
+      <c r="A5" s="2" t="n">
+        <v>3352</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="4" t="s">
-        <v>21</v>
+      <c r="G5" s="1" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="2" t="s">
-        <v>22</v>
+      <c r="A6" s="2" t="n">
+        <v>3354</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="1"/>
+        <v>25</v>
+      </c>
       <c r="G6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
-        <v>26</v>
+      <c r="A7" s="2" t="n">
+        <v>3356</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="2" t="s">
-        <v>30</v>
+      <c r="A8" s="2" t="n">
+        <v>3358</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>33</v>
-      </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="0" t="n">
+        <v>4579</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="2"/>
+      <c r="D9" s="1" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="n">
+        <v>3360</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="D10" s="1" t="n">
         <v>250000</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>39</v>
+      </c>
       <c r="G10" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="n">
+        <v>3362</v>
+      </c>
       <c r="B11" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="1" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E11" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="D11" s="0" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>43</v>
       </c>
+      <c r="G11" s="0" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="0" t="n">
+        <v>4581</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>45</v>
       </c>
+      <c r="C12" s="0" t="s">
+        <v>46</v>
+      </c>
       <c r="D12" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="E12" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="0" t="s">
+      <c r="E12" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3364</v>
+      </c>
       <c r="B13" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="0" t="s">
         <v>49</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="D13" s="0" t="n">
         <v>250000</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="G13" s="4" t="s">
+      <c r="E13" s="0" t="s">
         <v>51</v>
       </c>
+      <c r="G13" s="0" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="n">
+        <v>3366</v>
+      </c>
       <c r="B14" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D14" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="n">
+        <v>3368</v>
+      </c>
       <c r="B15" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D15" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="0" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
+      <c r="A16" s="2" t="n">
+        <v>3370</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="2" t="s">
@@ -796,132 +836,134 @@
       <c r="E16" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="n">
+        <v>3372</v>
+      </c>
       <c r="B17" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="G17" s="0" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2" t="s">
+      <c r="A18" s="2" t="n">
+        <v>3374</v>
+      </c>
+      <c r="B18" s="0" t="s">
         <v>68</v>
       </c>
+      <c r="C18" s="0" t="s">
+        <v>69</v>
+      </c>
       <c r="D18" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="n">
+        <v>2746</v>
+      </c>
       <c r="B19" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>75</v>
+      <c r="A20" s="2" t="n">
+        <v>3376</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>350000</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="G20" s="0" t="s">
         <v>78</v>
       </c>
+      <c r="F20" s="0" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C21" s="0" t="s">
+      <c r="A21" s="2" t="n">
+        <v>3378</v>
+      </c>
+      <c r="B21" s="0" t="s">
         <v>80</v>
       </c>
+      <c r="C21" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="D21" s="0" t="n">
-        <v>350000</v>
+        <v>250000</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F21" s="0" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G21" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="n">
+        <v>3380</v>
+      </c>
       <c r="B22" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>250000</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G22" s="0" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="25.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
         <v>87</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D23" s="0" t="n">
-        <v>250000</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" display="https://m.media-amazon.com/images/I/6144pWTULEL._AC_SL1000_.jpg"/>
-    <hyperlink ref="E13" r:id="rId2" display="https://cf.shopee.ph/file/b394a59ac9824e09746c01b0b9105bbe"/>
-    <hyperlink ref="G13" r:id="rId3" display="https://shopee.ph/Uncharted-4-PS4-Game-i.53383439.4838523420"/>
-    <hyperlink ref="G17" r:id="rId4" display="https://www.amazon.ae/-/ar/%D9%84%D8%B9%D8%A8%D8%A9-%D8%B3%D8%A8%D8%A7%D9%8A%D8%AF%D8%B1-%D9%85%D8%A7%D9%86-%D9%85%D9%86-%D9%85%D8%A7%D8%B1%D9%81%D9%8A%D9%84/dp/B07X23YRCS?th=1"/>
+    <hyperlink ref="G12" r:id="rId1" display="https://shopee.ph/Uncharted-4-PS4-Game-i.53383439.4838523420"/>
+    <hyperlink ref="G16" r:id="rId2" display="https://www.amazon.ae/-/ar/%D9%84%D8%B9%D8%A8%D8%A9-%D8%B3%D8%A8%D8%A7%D9%8A%D8%AF%D8%B1-%D9%85%D8%A7%D9%86-%D9%85%D9%86-%D9%85%D8%A7%D8%B1%D9%81%D9%8A%D9%84/dp/B07X23YRCS?th=1"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -940,11 +982,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -974,22 +1016,22 @@
         <v>3635</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>400000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1014,7 +1056,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1044,22 +1086,22 @@
         <v>3638</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1081,10 +1123,10 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E9" activeCellId="0" sqref="E9"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1110,26 +1152,26 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="2" t="n">
         <v>3644</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1141,4 +1183,104 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="n">
+        <v>4583</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>600000</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1" display="https://m.media-amazon.com/images/I/6144pWTULEL._AC_SL1000_.jpg"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/sheets/gaming.xlsx
+++ b/sheets/gaming.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="115">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -346,6 +346,22 @@
     <t xml:space="preserve">https://www.amazon.com.au/Xbox-Wireless-Controller-Shock-Blue/dp/B087VMGP5G</t>
   </si>
   <si>
+    <t xml:space="preserve">Backbone One iPhone Mobile Gaming Controller / Gamepad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With Backbone One, gaming's never been so effortless. Snap in your iPhone and play any iOS game or service that supports controllers, including Xbox Game Pass, Apple Arcade, or even stream from your Xbox using Remote Play. No charging, no waiting for updates, no tedious setup. Uncover a new world of premium gaming in seconds. It just works!
+Record and edit game clips Capture and share your best moments straight from Backbone. The Backbone app assists you in visualising your most action-packed moments automatically.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.zoommer.ge/zoommer-images/thumbs/0182999_backbone-one-for-xbox-v2-black_550.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://img.zoommer.ge/zoommer-images/thumbs/0183001_backbone-one-for-xbox-v2-black_550.jpeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lecgriffith.com.au/products/backbone-one-iphone-mobile-gaming-controller-gamepad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sony Dualshock 4 Wireless Controller for PlayStation 4 </t>
   </si>
   <si>
@@ -383,6 +399,33 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.amazon.com/Fire-7-Kids-Tablet/dp/B099HBQG2V?th=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amazon Fire HD 8 Kids Pro Tablet, 8" HD, Ages 6 - 12, 32 GB – Doodle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Built to keep up with kids. A high-performance tablet for 6-12 year old kids. Features a quad-core processor, 2 GB RAM, vibrant 8" HD display, dual cameras, USB-C (2.0) port, up to 1 TB of expandable storage, and 1 year of Amazon Kids+. Parents can rest easy. All Fire Kids Pro tablets come with a 2-year worry-free warranty and a Kid-Friendly slim Case.
+    Screen: 8" (1280 x 800)
+    Processor: MTK/MT8168, Quad-core 2GHz
+    Storage: 32GB
+    FireOS
+    2GB LPDDR4
+    Up to 12 hours of mixed use
+    802.11a,b,g,n,ac
+    Front: 2M PIXEL, Rear: 2M PIXEL
+    3.5mm audio jack/CTIA and OMTP, 2 x Micro speaker
+    USB-C (2.0) port
+    8.31" L x 6.34" W x 0.71" H
+    2-Year Worry-free Warranty
+    Weight: 1.20 lbs
+    Battery Details: 1-Cell 3.8V 4850mAh Lithium Ion polymer battery
+    Bluetooth: 2.0, 3.0, 4.2, 5.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cdn.shopify.com/s/files/1/0036/4806/1509/products/41901119c4d20d2be2e36ee1cc5902df0ae82dcd_square3011393_1_1000x1000.jpg?v=1669761795</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.staples.ca/products/3011393-en-amazon-fire-hd-8-kids-pro-tablet-8-hd-ages-6-12-32-gb-doodle</t>
   </si>
 </sst>
 </file>
@@ -514,7 +557,7 @@
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -980,13 +1023,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1034,6 +1077,27 @@
         <v>92</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="21.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1056,7 +1120,7 @@
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1086,7 +1150,7 @@
         <v>3638</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>89</v>
@@ -1095,13 +1159,13 @@
         <v>300000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1126,7 +1190,7 @@
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1156,22 +1220,22 @@
         <v>3644</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>4000000</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1190,13 +1254,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1226,23 +1290,39 @@
         <v>4583</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>600000</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>700000</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/sheets/gaming.xlsx
+++ b/sheets/gaming.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="games" sheetId="1" state="visible" r:id="rId2"/>
@@ -553,11 +553,11 @@
   </sheetPr>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A19" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.6875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.70703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="11.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1025,11 +1025,11 @@
   </sheetPr>
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G30" activeCellId="0" sqref="G30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="21.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>3635</v>
       </c>
@@ -1077,7 +1077,10 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="19.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5236</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>93</v>
       </c>
@@ -1116,11 +1119,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1186,11 +1189,11 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1256,11 +1259,11 @@
   </sheetPr>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1307,6 +1310,9 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>5233</v>
+      </c>
       <c r="B3" s="0" t="s">
         <v>111</v>
       </c>
